--- a/data/exemple.xlsx
+++ b/data/exemple.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximelat/Library/Mobile Documents/com~apple~CloudDocs/EDX/cas_temoins_analyse/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Patients</t>
-  </si>
-  <si>
-    <t>Echantillon</t>
   </si>
   <si>
     <t>Temoins</t>
@@ -60,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,12 +75,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,43 +114,17 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -174,6 +147,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -499,198 +477,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>3.7131589102344829</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1.3249890088366409</v>
       </c>
-      <c r="C2" s="3">
-        <v>9.1639999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2.6499780176732619</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1.0111383382542181</v>
       </c>
-      <c r="C3" s="3">
-        <v>9.7970000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1.1232250834289175</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1.1763470284798132</v>
       </c>
-      <c r="C4" s="3">
-        <v>6.6909999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2.1574299626555784</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>1.3112841922721652</v>
       </c>
-      <c r="C5" s="3">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1.5290621620780844</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>1.7242636551996373</v>
       </c>
-      <c r="C6" s="3">
-        <v>11.189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1.8651785266548886</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1.6331384020704622</v>
       </c>
-      <c r="C7" s="3">
-        <v>6.3179999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>2.3608620190451965</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.95218494616165761</v>
       </c>
-      <c r="C8" s="3">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>2.0600038858664482</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.91868810796024536</v>
       </c>
-      <c r="C9" s="3">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>2.0013595740198</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>0.84341449748822794</v>
       </c>
-      <c r="C10" s="3">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>1.4415761608649293</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>0.70840537263491821</v>
       </c>
-      <c r="C11" s="3">
-        <v>13.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
-      <c r="A12" s="5">
+    </row>
+    <row r="12" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1.4718667403735139</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.79149221138625248</v>
       </c>
-      <c r="C12" s="4">
-        <v>10.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>1.4168107452698364</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>1.2506230900264745</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>1.5666110709983889</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>3.6620387542541697</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>1.3973050930627195</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>1.9154017948809425</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="16" thickBot="1">
+    <row r="20" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A18">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1.397</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1.397</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>